--- a/Literature Review/papers/literature_review_list.xlsx
+++ b/Literature Review/papers/literature_review_list.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmoumtzis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gmoumtzis@wwfint.org\Documents\GitHub\MasterThesis\Literature Review\papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="10605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>Author</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>white paper, interesting</t>
+  </si>
+  <si>
+    <t>Read</t>
   </si>
 </sst>
 </file>
@@ -596,7 +599,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +691,9 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -706,7 +711,9 @@
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">

--- a/Literature Review/papers/literature_review_list.xlsx
+++ b/Literature Review/papers/literature_review_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
   <si>
     <t>Author</t>
   </si>
@@ -218,6 +218,54 @@
   </si>
   <si>
     <t>Read</t>
+  </si>
+  <si>
+    <t>A Service-oriented Architecture for Business Intelligence</t>
+  </si>
+  <si>
+    <t>Liya Wu</t>
+  </si>
+  <si>
+    <t>very interesting, SOA based</t>
+  </si>
+  <si>
+    <t>A Configurable Strategy for Extraction, Transformation and Load to Support Data Propagation on Active Data Warehouses</t>
+  </si>
+  <si>
+    <t>Carlos Roberto Valêncio</t>
+  </si>
+  <si>
+    <t>extract data based on relevance of data</t>
+  </si>
+  <si>
+    <t>not interesting</t>
+  </si>
+  <si>
+    <t>ETL-aware Materialized View Selection in Semantic Data Stream Warehouses</t>
+  </si>
+  <si>
+    <t>Nabila Berkani</t>
+  </si>
+  <si>
+    <t>very complicated</t>
+  </si>
+  <si>
+    <t>Best Practices for Real-Time Data Warehousing</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>very interesting, CDC</t>
+  </si>
+  <si>
+    <t>Real-time data pipelines: pairing message queues and databases</t>
+  </si>
+  <si>
+    <t>Orenstein, Gary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">very interesting ,message queues </t>
   </si>
 </sst>
 </file>
@@ -240,7 +288,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +310,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,6 +368,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -596,16 +653,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="A8:XFD8"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="23.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="111.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="69.7109375" style="1" customWidth="1"/>
@@ -955,6 +1012,96 @@
       </c>
       <c r="G17" s="6"/>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F17" r:id="rId1"/>

--- a/Literature Review/papers/literature_review_list.xlsx
+++ b/Literature Review/papers/literature_review_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
   <si>
     <t>Author</t>
   </si>
@@ -121,9 +121,6 @@
     <t>SOA based real-time data warehouse</t>
   </si>
   <si>
-    <t>uses also message queue service, worth checking</t>
-  </si>
-  <si>
     <t>R.J.Santos</t>
   </si>
   <si>
@@ -266,6 +263,24 @@
   </si>
   <si>
     <t xml:space="preserve">very interesting ,message queues </t>
+  </si>
+  <si>
+    <t>Publish/Subscribe Architecture with Web Services</t>
+  </si>
+  <si>
+    <t>Thanisa Numnonda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pub sub and web services </t>
+  </si>
+  <si>
+    <t>joins and aggregations but I didn’t get the point</t>
+  </si>
+  <si>
+    <t>web services, very badly written</t>
+  </si>
+  <si>
+    <t>Oracle Golden Gate CDC</t>
   </si>
 </sst>
 </file>
@@ -377,7 +392,24 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF548235"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF548235"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -653,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,418 +725,455 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1">
-        <v>2010</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="4"/>
+        <v>2011</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C3" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>2009</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
-        <v>2011</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>2008</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C5" s="1">
-        <v>2009</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>2011</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1">
         <v>2013</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1">
-        <v>2011</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>2004</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1">
-        <v>2010</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>2002</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C12" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1">
-        <v>2008</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>54</v>
+        <v>2011</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1">
-        <v>2004</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="6"/>
+        <v>2010</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>60</v>
+        <v>2014</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>71</v>
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1">
-        <v>2007</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>64</v>
+        <v>2008</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="8"/>
     </row>
   </sheetData>
+  <sortState ref="A2:G23">
+    <sortCondition sortBy="cellColor" ref="G2:G23" dxfId="1"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="F17" r:id="rId1"/>
+    <hyperlink ref="F10" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Literature Review/papers/literature_review_list.xlsx
+++ b/Literature Review/papers/literature_review_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
   <si>
     <t>Author</t>
   </si>
@@ -202,9 +202,6 @@
     <t>table structure replication</t>
   </si>
   <si>
-    <t>https://www.researchgate.net/publication/228815719_Current_practices_in_active_data_warehousing</t>
-  </si>
-  <si>
     <t>Current Practices in  Active Data Warehousing</t>
   </si>
   <si>
@@ -281,13 +278,22 @@
   </si>
   <si>
     <t>Oracle Golden Gate CDC</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>SOA architecture but general , Not specific for real time etl</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/228815719_Current_practices_in_active_data_warehousing    (Interviews)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +304,14 @@
     <font>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -359,10 +373,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -388,19 +403,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF548235"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -687,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +753,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -762,7 +773,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -782,10 +793,10 @@
         <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -823,10 +834,10 @@
         <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -894,61 +905,68 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1">
         <v>2002</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1">
         <v>2007</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1">
         <v>2014</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -956,19 +974,19 @@
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="1">
         <v>2018</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -976,19 +994,19 @@
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1">
         <v>2011</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1137,19 +1155,19 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1">
         <v>2016</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1158,19 +1176,19 @@
         <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G23" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A2:G23">
-    <sortCondition sortBy="cellColor" ref="G2:G23" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="G2:G23" dxfId="0"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="F10" r:id="rId1"/>

--- a/Literature Review/papers/literature_review_list.xlsx
+++ b/Literature Review/papers/literature_review_list.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gmoumtzis@wwfint.org\Documents\GitHub\MasterThesis\Literature Review\papers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greg_\Documents\GitHub\MasterThesis\Literature Review\papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8129B055-99B3-4218-A3F9-778627A583A2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
   <si>
     <t>Author</t>
   </si>
@@ -181,9 +182,6 @@
     <t>a framework for active data warehouse</t>
   </si>
   <si>
-    <t xml:space="preserve">complex but worth reading </t>
-  </si>
-  <si>
     <t>J.Shi</t>
   </si>
   <si>
@@ -287,12 +285,72 @@
   </si>
   <si>
     <t>https://www.researchgate.net/publication/228815719_Current_practices_in_active_data_warehousing    (Interviews)</t>
+  </si>
+  <si>
+    <t>complex but worth reading /not focus on real-time ETL</t>
+  </si>
+  <si>
+    <t>CDC trigger based</t>
+  </si>
+  <si>
+    <t>Dr.Muhammad Younus Javed</t>
+  </si>
+  <si>
+    <t>Data Load Distribution by Semi Real Time Data Warehouse</t>
+  </si>
+  <si>
+    <t>merging both conventional and real-time techniques</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>Study on Log-Based Change Data Capture and Handling Mechanism in Real-Time Data Warehouse</t>
+  </si>
+  <si>
+    <t>JinGang Shi</t>
+  </si>
+  <si>
+    <t>log based CDC</t>
+  </si>
+  <si>
+    <t>Extracting Delta for Incremental Data Warehouse Maintenance</t>
+  </si>
+  <si>
+    <t>Prabhu Ram</t>
+  </si>
+  <si>
+    <t>Kafka versus RabbitMQ∗</t>
+  </si>
+  <si>
+    <t>PHILIPPE DOBBELAERE</t>
+  </si>
+  <si>
+    <t>differences between the 2 systems</t>
+  </si>
+  <si>
+    <t>Change Data Capture Efficient ETL for Real-Time BI</t>
+  </si>
+  <si>
+    <t>Ankorion, Itamar</t>
+  </si>
+  <si>
+    <t>very generic</t>
+  </si>
+  <si>
+    <t>Near Real-Time Data Warehousing Using State-of-the-Art ETL Tools</t>
+  </si>
+  <si>
+    <t>Thomas Jorg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">traditional ETL </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -695,25 +753,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="54.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="111.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="69.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="106.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="54.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="111.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="69.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="106.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -736,462 +794,579 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C4" s="1">
         <v>2011</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="G4" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C5" s="1">
         <v>2009</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2008</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2011</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>2013</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="F12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C13" s="1">
         <v>2006</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="C14" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C15" s="1">
         <v>2004</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="G15" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2007</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2014</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="1" t="s">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="E22" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="G22" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="1">
-        <v>2011</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="G23" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="1">
         <v>2010</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2014</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2013</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="D25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>10</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2010</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2008</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>15</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2008</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>17</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2016</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>18</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="8"/>
+      <c r="B28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G23">
-    <sortCondition sortBy="cellColor" ref="G2:G23" dxfId="0"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G23">
+    <sortCondition ref="A1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1"/>
+    <hyperlink ref="F17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Literature Review/papers/literature_review_list.xlsx
+++ b/Literature Review/papers/literature_review_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greg_\Documents\GitHub\MasterThesis\Literature Review\papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8129B055-99B3-4218-A3F9-778627A583A2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000C2BB8-40C7-49FA-B14F-63CA8881F41C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,16 +469,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF548235"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -756,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Literature Review/papers/literature_review_list.xlsx
+++ b/Literature Review/papers/literature_review_list.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greg_\Documents\GitHub\MasterThesis\Literature Review\papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000C2BB8-40C7-49FA-B14F-63CA8881F41C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B93C902-3F30-44DF-A01D-ADC7C7301F00}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="148">
   <si>
     <t>Author</t>
   </si>
@@ -345,6 +351,132 @@
   </si>
   <si>
     <t xml:space="preserve">traditional ETL </t>
+  </si>
+  <si>
+    <t>An Event-Based Near Real-Time Data Integration Architecture</t>
+  </si>
+  <si>
+    <t>event based - push methodolgy</t>
+  </si>
+  <si>
+    <t>very interesting</t>
+  </si>
+  <si>
+    <t>A Real Time Data Warehouse Approach for Data Processing</t>
+  </si>
+  <si>
+    <t>Murat Obalı</t>
+  </si>
+  <si>
+    <t>web services</t>
+  </si>
+  <si>
+    <t>Refreshing Datawarehouse in Near Real-Time</t>
+  </si>
+  <si>
+    <t>Tanvi Jain</t>
+  </si>
+  <si>
+    <t>CDC techniques</t>
+  </si>
+  <si>
+    <t>ETL Evolution for Real-Time Data Warehousing</t>
+  </si>
+  <si>
+    <t>Kamal Kakish</t>
+  </si>
+  <si>
+    <t>worth reading</t>
+  </si>
+  <si>
+    <t>Creating a Real Time Data Warehouse</t>
+  </si>
+  <si>
+    <t>Data Integration Models for Operational Data Warehousing</t>
+  </si>
+  <si>
+    <t>G. Swetha</t>
+  </si>
+  <si>
+    <t>overview</t>
+  </si>
+  <si>
+    <t>Robin Moffatt</t>
+  </si>
+  <si>
+    <t>Real-time Data Integration at Scale with Kafka Connect</t>
+  </si>
+  <si>
+    <t>NMSTREAM: A SCALABLE EVENT-DRIVEN ETL FRAMEWORK FOR PROCESSING HETEROGENEOUS STREAMING DATA</t>
+  </si>
+  <si>
+    <t>Fei Xiao</t>
+  </si>
+  <si>
+    <t>web based ETL, event driven</t>
+  </si>
+  <si>
+    <t>Near Real Time ETL</t>
+  </si>
+  <si>
+    <t>Vassiliadis</t>
+  </si>
+  <si>
+    <t>etl overview</t>
+  </si>
+  <si>
+    <t>very interesting but old</t>
+  </si>
+  <si>
+    <t>Towards real-time business intelligence</t>
+  </si>
+  <si>
+    <t>B Azvine</t>
+  </si>
+  <si>
+    <t>high level overview</t>
+  </si>
+  <si>
+    <t>old, maybe generic</t>
+  </si>
+  <si>
+    <t>Real-Time Data Warehouse Loading Methodology</t>
+  </si>
+  <si>
+    <t>Ricardo Jorge Santos</t>
+  </si>
+  <si>
+    <t>interesting but no so relevant</t>
+  </si>
+  <si>
+    <t>Near Real-Time with traditional Data Warehouse Architectures: Factors and How-to</t>
+  </si>
+  <si>
+    <t>Nickerson Ferreira</t>
+  </si>
+  <si>
+    <t>traditional archtiecture</t>
+  </si>
+  <si>
+    <t>Problems and Available Solutions On The Stage of Extract, Transform, and Loading In Near Real-Time Data Warehousing</t>
+  </si>
+  <si>
+    <t>Ardianto Wibowo</t>
+  </si>
+  <si>
+    <t>literature study</t>
+  </si>
+  <si>
+    <t>From Data Warehouses to Streaming Warehouses</t>
+  </si>
+  <si>
+    <t>Revathy S</t>
+  </si>
+  <si>
+    <t>data streams</t>
+  </si>
+  <si>
+    <t>worth reading, but not s detailed</t>
   </si>
 </sst>
 </file>
@@ -745,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1150,6 +1282,9 @@
       <c r="B19" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="C19" s="1">
+        <v>2018</v>
+      </c>
       <c r="D19" s="3" t="s">
         <v>68</v>
       </c>
@@ -1260,7 +1395,9 @@
       <c r="E24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -1281,7 +1418,9 @@
       <c r="F25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -1351,6 +1490,294 @@
         <v>105</v>
       </c>
       <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G43" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G23">

--- a/Literature Review/papers/literature_review_list.xlsx
+++ b/Literature Review/papers/literature_review_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greg_\Documents\GitHub\MasterThesis\Literature Review\papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B93C902-3F30-44DF-A01D-ADC7C7301F00}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC999E7-3A86-4241-BAA3-470A46FBD6C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="147">
   <si>
     <t>Author</t>
   </si>
@@ -339,9 +339,6 @@
   </si>
   <si>
     <t>Ankorion, Itamar</t>
-  </si>
-  <si>
-    <t>very generic</t>
   </si>
   <si>
     <t>Near Real-Time Data Warehousing Using State-of-the-Art ETL Tools</t>
@@ -880,7 +877,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1435,7 +1432,9 @@
       <c r="D26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -1469,25 +1468,27 @@
         <v>100</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="1">
         <v>2009</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G29" s="6"/>
     </row>
@@ -1502,13 +1503,13 @@
         <v>2008</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="G30" s="6"/>
     </row>
@@ -1517,16 +1518,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="1">
         <v>2013</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G31" s="6"/>
     </row>
@@ -1535,19 +1536,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C32" s="1">
         <v>2012</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G32" s="6"/>
     </row>
@@ -1556,16 +1557,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33" s="1">
         <v>2012</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G33" s="6"/>
     </row>
@@ -1574,19 +1575,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C34" s="1">
         <v>2011</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G34" s="6"/>
     </row>
@@ -1595,16 +1596,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C35" s="1">
         <v>2014</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>91</v>
@@ -1616,19 +1617,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C36" s="1">
         <v>2017</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G36" s="6"/>
     </row>
@@ -1637,19 +1638,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" s="1">
         <v>2018</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G37" s="6"/>
     </row>
@@ -1658,19 +1659,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C38" s="1">
         <v>2008</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="G38" s="6"/>
     </row>
@@ -1679,19 +1680,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C39" s="1">
         <v>2005</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="G39" s="7"/>
     </row>
@@ -1700,19 +1701,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C40" s="1">
         <v>2008</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G40" s="7"/>
     </row>
@@ -1721,19 +1722,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C41" s="1">
         <v>2013</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G41" s="6"/>
     </row>
@@ -1742,19 +1743,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C42" s="1">
         <v>2015</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G42" s="6"/>
     </row>
@@ -1763,19 +1764,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C43" s="1">
         <v>2013</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="G43" s="6"/>
     </row>

--- a/Literature Review/papers/literature_review_list.xlsx
+++ b/Literature Review/papers/literature_review_list.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greg_\Documents\GitHub\MasterThesis\Literature Review\papers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gmoumtzis@wwfint.org\Documents\GitHub\MasterThesis\Literature Review\papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC999E7-3A86-4241-BAA3-470A46FBD6C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="4905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="148">
   <si>
     <t>Author</t>
   </si>
@@ -474,12 +473,15 @@
   </si>
   <si>
     <t>worth reading, but not s detailed</t>
+  </si>
+  <si>
+    <t>very interesting, need to read again</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -873,25 +875,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="54.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="111.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="69.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="106.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="54.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="111.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="69.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="106.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -914,7 +916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -935,7 +937,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -953,7 +955,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -973,7 +975,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -993,7 +995,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1014,7 +1016,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1035,7 +1037,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1058,7 +1060,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1076,7 +1078,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1099,7 +1101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1120,7 +1122,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1143,7 +1145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1166,7 +1168,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1187,7 +1189,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1210,7 +1212,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1228,7 +1230,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1251,7 +1253,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1272,7 +1274,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1290,7 +1292,7 @@
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1313,7 +1315,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1336,7 +1338,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1356,7 +1358,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1376,7 +1378,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1396,7 +1398,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1419,7 +1421,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1436,7 +1438,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1454,7 +1456,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1474,7 +1476,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1490,9 +1492,11 @@
       <c r="E29" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G29" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1509,11 +1513,13 @@
         <v>106</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1529,9 +1535,11 @@
       <c r="E31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G31" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1550,9 +1558,11 @@
       <c r="F32" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G32" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1568,9 +1578,11 @@
       <c r="F33" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G33" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1589,9 +1601,11 @@
       <c r="F34" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G34" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1612,7 +1626,7 @@
       </c>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1633,7 +1647,7 @@
       </c>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1654,7 +1668,7 @@
       </c>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1673,9 +1687,11 @@
       <c r="F38" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G38" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1696,7 +1712,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1717,7 +1733,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1738,7 +1754,7 @@
       </c>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1759,7 +1775,7 @@
       </c>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1781,11 +1797,11 @@
       <c r="G43" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G23">
+  <sortState ref="A2:G23">
     <sortCondition ref="A1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F17" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Literature Review/papers/literature_review_list.xlsx
+++ b/Literature Review/papers/literature_review_list.xlsx
@@ -506,7 +506,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +534,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -595,6 +601,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -878,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,23 +991,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:7" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="10">
         <v>2009</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1101,26 +1118,26 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="10">
         <v>2010</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">

--- a/Literature Review/papers/literature_review_list.xlsx
+++ b/Literature Review/papers/literature_review_list.xlsx
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,23 +953,24 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="10">
         <v>2018</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1118,26 +1119,26 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="1">
         <v>2010</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1162,26 +1163,26 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="10">
         <v>2006</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="12" t="s">
         <v>60</v>
       </c>
     </row>

--- a/Literature Review/papers/literature_review_list.xlsx
+++ b/Literature Review/papers/literature_review_list.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="145">
   <si>
     <t>Author</t>
   </si>
@@ -308,15 +308,6 @@
   </si>
   <si>
     <t>interesting</t>
-  </si>
-  <si>
-    <t>Study on Log-Based Change Data Capture and Handling Mechanism in Real-Time Data Warehouse</t>
-  </si>
-  <si>
-    <t>JinGang Shi</t>
-  </si>
-  <si>
-    <t>log based CDC</t>
   </si>
   <si>
     <t>Extracting Delta for Incremental Data Warehouse Maintenance</t>
@@ -892,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,23 +963,24 @@
       <c r="F3" s="10"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="10">
         <v>2011</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1119,7 +1111,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1398,97 +1390,99 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>25</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="1">
-        <v>2008</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="C25" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2010</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C27" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D27" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="7"/>
+      <c r="F27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2005</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>60</v>
@@ -1496,19 +1490,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="1">
-        <v>2009</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>104</v>
+      <c r="F29" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>60</v>
@@ -1516,50 +1513,50 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="C30" s="1">
-        <v>2008</v>
-      </c>
-      <c r="D30" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>105</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>31</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="1">
-        <v>2013</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="10">
+        <v>2012</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="F31" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>112</v>
@@ -1570,160 +1567,158 @@
       <c r="D32" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="G32" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2012</v>
-      </c>
-      <c r="D33" s="1" t="s">
+    <row r="33" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>33</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G33" s="6" t="s">
+      <c r="C33" s="10">
+        <v>2011</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="1">
-        <v>2011</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>60</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="1">
-        <v>2014</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C36" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
+    <row r="37" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>37</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="C37" s="10">
+        <v>2008</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G37" s="6"/>
+      <c r="F37" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="1">
-        <v>2008</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>60</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="1">
-        <v>2005</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>133</v>
@@ -1732,34 +1727,34 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C40" s="1">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>134</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G40" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="G40" s="6"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C41" s="1">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>137</v>
@@ -1768,19 +1763,19 @@
         <v>139</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C42" s="1">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>140</v>
@@ -1789,30 +1784,9 @@
         <v>142</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C43" s="1">
-        <v>2013</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G43" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A2:G23">

--- a/Literature Review/papers/literature_review_list.xlsx
+++ b/Literature Review/papers/literature_review_list.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="146">
   <si>
     <t>Author</t>
   </si>
@@ -467,6 +467,9 @@
   </si>
   <si>
     <t>very interesting, need to read again</t>
+  </si>
+  <si>
+    <t>super interesting</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -602,6 +605,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -885,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,26 +1138,26 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="10">
         <v>2013</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1178,26 +1184,26 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="10">
         <v>2008</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1325,26 +1331,26 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="10">
         <v>2014</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1425,7 +1431,9 @@
         <v>92</v>
       </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="G25" s="12" t="s">
         <v>60</v>
       </c>

--- a/Literature Review/papers/literature_review_list.xlsx
+++ b/Literature Review/papers/literature_review_list.xlsx
@@ -892,7 +892,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E5" sqref="A5:XFD5"/>
+      <selection activeCell="E27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Literature Review/papers/literature_review_list.xlsx
+++ b/Literature Review/papers/literature_review_list.xlsx
@@ -500,7 +500,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,6 +537,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -566,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -608,6 +614,13 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -891,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,26 +1321,26 @@
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="15">
         <v>2007</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="16" t="s">
         <v>83</v>
       </c>
     </row>

--- a/Literature Review/papers/literature_review_list.xlsx
+++ b/Literature Review/papers/literature_review_list.xlsx
@@ -515,12 +515,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -540,6 +534,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -589,33 +589,40 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -905,7 +912,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,64 +970,64 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+    <row r="3" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>2018</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="F3" s="9"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>2011</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="F4" s="9"/>
+      <c r="G4" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>2009</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1066,26 +1073,26 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="17">
         <v>2008</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="19" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1105,7 +1112,7 @@
       <c r="E9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1126,7 +1133,7 @@
       <c r="F10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1149,74 +1156,74 @@
       <c r="F11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>2013</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="G12" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>2006</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="G13" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>2008</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1237,7 +1244,7 @@
       <c r="F15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1257,7 +1264,7 @@
       <c r="E16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1275,33 +1282,33 @@
       <c r="E17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="17">
         <v>2016</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1319,51 +1326,51 @@
       <c r="E19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <v>2007</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+    <row r="21" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>2014</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1383,7 +1390,7 @@
       <c r="E22" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1403,7 +1410,7 @@
       <c r="E23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1426,28 +1433,28 @@
       <c r="F24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="G24" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
         <v>25</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="9">
         <v>2000</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1467,7 +1474,7 @@
       <c r="E26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -1485,7 +1492,7 @@
       <c r="F27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1505,7 +1512,7 @@
       <c r="E28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1528,7 +1535,7 @@
       <c r="F29" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1548,30 +1555,30 @@
       <c r="E30" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="G30" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
         <v>31</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="9">
         <v>2012</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1591,30 +1598,30 @@
       <c r="F32" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="G32" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
         <v>33</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <v>2011</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1637,7 +1644,7 @@
       <c r="F34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G34" s="6"/>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -1658,7 +1665,7 @@
       <c r="F35" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="6"/>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -1679,28 +1686,28 @@
       <c r="F36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
         <v>37</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="9">
         <v>2008</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1723,7 +1730,7 @@
       <c r="F38" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G38" s="7"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -1744,7 +1751,7 @@
       <c r="F39" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -1765,7 +1772,7 @@
       <c r="F40" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G40" s="6"/>
+      <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -1786,7 +1793,7 @@
       <c r="F41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="6"/>
+      <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -1807,7 +1814,7 @@
       <c r="F42" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G42" s="6"/>
+      <c r="G42" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:G23">
